--- a/xlsx/country_comparison/radical_redistr_all_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -64,11 +67,12 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -454,16 +458,19 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.548749204972874</v>
+        <v>0.556007222541788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275778</v>
+        <v>0.612606004275779</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -487,21 +494,24 @@
         <v>0.529872342725065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.438153093874799</v>
+        <v>0.438282499020205</v>
       </c>
       <c r="L2" t="n">
+        <v>0.595756191953926</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.677827112481047</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.508222265196169</v>
+      <c r="N2" t="n">
+        <v>0.508231644030169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.488009346515533</v>
+        <v>0.50312291438834</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -528,21 +538,24 @@
         <v>0.360111742646164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.351009115929929</v>
+        <v>0.351050882580874</v>
       </c>
       <c r="L3" t="n">
+        <v>0.604399737467109</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.671355992475847</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.447291263751444</v>
+      <c r="N3" t="n">
+        <v>0.447300643788012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -569,21 +582,24 @@
         <v>0.665468662233116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.757961572913613</v>
+        <v>0.758076861129753</v>
       </c>
       <c r="L4" t="n">
+        <v>0.688615273248795</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.61682403920896</v>
+      <c r="N4" t="n">
+        <v>0.616918649447641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.582407081968796</v>
+        <v>0.609601586795904</v>
       </c>
       <c r="C5" t="n">
         <v>0.667387097439935</v>
@@ -610,62 +626,66 @@
         <v>0.566109070039295</v>
       </c>
       <c r="K5" t="n">
-        <v>0.571037878973246</v>
+        <v>0.571096670838126</v>
       </c>
       <c r="L5" t="n">
+        <v>0.778963825426238</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.756844881931732</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.472973814509855</v>
+      <c r="N5" t="n">
+        <v>0.472900191628792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54627578656303</v>
+        <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530038042676022</v>
+        <v>0.699222514786681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525216461992543</v>
+        <v>0.688082663981164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574663014312723</v>
+        <v>0.819338712934373</v>
       </c>
       <c r="G6" t="n">
-        <v>0.541227742327436</v>
+        <v>0.708420268414952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.57000212855437</v>
+        <v>0.74352822863702</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5501691998004</v>
+        <v>0.68138828161491</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48406365355452</v>
+        <v>0.639531813440066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.510803804042151</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.404576421408372</v>
-      </c>
+        <v>0.557841849059486</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.497966802692056</v>
+        <v>0.727098526374066</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.666651932459956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.364700740506257</v>
+        <v>0.364717906507653</v>
       </c>
       <c r="C7" t="n">
         <v>0.40721776360235</v>
@@ -692,19 +712,20 @@
         <v>0.314122252360097</v>
       </c>
       <c r="K7" t="n">
-        <v>0.221514789130911</v>
+        <v>0.22156020948145</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.372185762920701</v>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>0.372217577193357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.347856888878235</v>
+        <v>0.347853243460036</v>
       </c>
       <c r="C8" t="n">
         <v>0.389632627264691</v>
@@ -728,16 +749,17 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.306358846199483</v>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0.306445646731996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.414163491723958</v>
+        <v>0.410626908494325</v>
       </c>
       <c r="C9" t="n">
         <v>0.439007996245569</v>
@@ -764,18 +786,21 @@
         <v>0.393105560133332</v>
       </c>
       <c r="K9" t="n">
-        <v>0.319277017627355</v>
+        <v>0.319383802321488</v>
       </c>
       <c r="L9" t="n">
+        <v>0.389233362357354</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.662536527281334</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.400776129109669</v>
+      <c r="N9" t="n">
+        <v>0.40055514051731</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -805,10 +830,11 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
+      <c r="L10"/>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_all_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all_positive.xlsx
@@ -467,10 +467,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556007222541788</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -497,7 +497,7 @@
         <v>0.438282499020205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.595756191953926</v>
+        <v>0.599020579536134</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
@@ -511,7 +511,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.50312291438834</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -541,7 +541,7 @@
         <v>0.351050882580874</v>
       </c>
       <c r="L3" t="n">
-        <v>0.604399737467109</v>
+        <v>0.605713809935328</v>
       </c>
       <c r="M3" t="n">
         <v>0.671355992475847</v>
@@ -555,43 +555,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.719673932778947</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.704645953003574</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.760434225154626</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.572739428737827</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.73608837047601</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.679200342355269</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.665468662233116</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.758076861129753</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688615273248795</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.713280127381035</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.616918649447641</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="5">
@@ -599,43 +599,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.609601586795904</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.667387097439935</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.608837961112165</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.64586557994442</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.780212171052138</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.766346455024569</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.728439095410156</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.555251737340332</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.566109070039295</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.571096670838126</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M5" t="n">
-        <v>0.756844881931732</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.472900191628792</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="6">
@@ -649,35 +649,35 @@
         <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.699222514786681</v>
+        <v>0.703425024778734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.688082663981164</v>
+        <v>0.690418272415403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.819338712934373</v>
+        <v>0.817088824971887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.708420268414952</v>
+        <v>0.707832398863728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.74352822863702</v>
+        <v>0.743080145118413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.68138828161491</v>
+        <v>0.682786565268408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.639531813440066</v>
+        <v>0.629978960602202</v>
       </c>
       <c r="K6" t="n">
-        <v>0.557841849059486</v>
+        <v>0.559364498889858</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.727098526374066</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="N6" t="n">
-        <v>0.666651932459956</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="7">
@@ -691,33 +691,33 @@
         <v>0.40721776360235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.428789858236926</v>
+        <v>0.433925894981486</v>
       </c>
       <c r="E7" t="n">
-        <v>0.382760045850686</v>
+        <v>0.380034556242257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.49409402735291</v>
+        <v>0.493153717901538</v>
       </c>
       <c r="G7" t="n">
-        <v>0.297020517023446</v>
+        <v>0.294240462496433</v>
       </c>
       <c r="H7" t="n">
-        <v>0.434344229636586</v>
+        <v>0.435945067636782</v>
       </c>
       <c r="I7" t="n">
-        <v>0.394744985134441</v>
+        <v>0.393859939620314</v>
       </c>
       <c r="J7" t="n">
-        <v>0.314122252360097</v>
+        <v>0.309382480278528</v>
       </c>
       <c r="K7" t="n">
-        <v>0.22156020948145</v>
+        <v>0.221879636941058</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.372217577193357</v>
+        <v>0.372714769461306</v>
       </c>
     </row>
     <row r="8">
@@ -731,27 +731,27 @@
         <v>0.389632627264691</v>
       </c>
       <c r="D8" t="n">
-        <v>0.330491389745475</v>
+        <v>0.330319367513297</v>
       </c>
       <c r="E8" t="n">
-        <v>0.335223833737993</v>
+        <v>0.336287925808747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.55884551964724</v>
+        <v>0.557635114819894</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.402288413192778</v>
+        <v>0.403966853457814</v>
       </c>
       <c r="I8" t="n">
-        <v>0.353117864669717</v>
+        <v>0.352147255041012</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.306445646731996</v>
+        <v>0.306378388289677</v>
       </c>
     </row>
     <row r="9">
@@ -759,43 +759,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.410626908494325</v>
+        <v>0.410629863862209</v>
       </c>
       <c r="C9" t="n">
         <v>0.439007996245569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.324278224348557</v>
+        <v>0.323193155043108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.441488389669955</v>
+        <v>0.444463951462934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.518375799884677</v>
+        <v>0.518235877111197</v>
       </c>
       <c r="G9" t="n">
-        <v>0.40468182659417</v>
+        <v>0.41082014424506</v>
       </c>
       <c r="H9" t="n">
-        <v>0.506211274976579</v>
+        <v>0.500549487362927</v>
       </c>
       <c r="I9" t="n">
-        <v>0.451738941455142</v>
+        <v>0.453356423772496</v>
       </c>
       <c r="J9" t="n">
-        <v>0.393105560133332</v>
+        <v>0.387974052023334</v>
       </c>
       <c r="K9" t="n">
-        <v>0.319383802321488</v>
+        <v>0.32098402394466</v>
       </c>
       <c r="L9" t="n">
-        <v>0.389233362357354</v>
+        <v>0.389828757171604</v>
       </c>
       <c r="M9" t="n">
-        <v>0.662536527281334</v>
+        <v>0.665815836537034</v>
       </c>
       <c r="N9" t="n">
-        <v>0.40055514051731</v>
+        <v>0.400110573948723</v>
       </c>
     </row>
     <row r="10">
